--- a/biology/Botanique/Carex_dioica/Carex_dioica.xlsx
+++ b/biology/Botanique/Carex_dioica/Carex_dioica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laîche dioïque
 La Laîche dioïque (Carex dioica) est une espèce de plantes vivaces du genre Carex et de la famille des Cyperaceae.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Elle mesure de 8 à 30 cm, elle est glabre, à souche grêle rampante-stolonifère ; la tige est dressée, filiforme, cylindracée, lisse. Les feuilles sont plus courtes que la tige, filiformes, lisses sauf au sommet[2]. 
-Appareil reproducteur
-L'épillet est solitaire, terminal, multiflore, dioïque ; le mâle est linéaire-cylindracé, à écailles lancéolées, tandis que l'épillet femelle est ovoïde ou oblong, à écailles rousses, ovales-subobtuses et persistantes. La bractée est triangulaire aristée ; il y a 2 stigmates. Les utricules sont à la fin étalés, bruns, longs de 3 à 4 mm, plans convexes, nervés, atténués en bec assez court dépassant l'écaille ; l'akène est ovale et biconvexe[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle mesure de 8 à 30 cm, elle est glabre, à souche grêle rampante-stolonifère ; la tige est dressée, filiforme, cylindracée, lisse. Les feuilles sont plus courtes que la tige, filiformes, lisses sauf au sommet. 
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison a lieu d'avril à juillet[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épillet est solitaire, terminal, multiflore, dioïque ; le mâle est linéaire-cylindracé, à écailles lancéolées, tandis que l'épillet femelle est ovoïde ou oblong, à écailles rousses, ovales-subobtuses et persistantes. La bractée est triangulaire aristée ; il y a 2 stigmates. Les utricules sont à la fin étalés, bruns, longs de 3 à 4 mm, plans convexes, nervés, atténués en bec assez court dépassant l'écaille ; l'akène est ovale et biconvexe.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette laîche est originaire d'Europe.
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu d'avril à juillet.
 </t>
         </is>
       </c>
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La laîche dioïque est une espèce caractéristique des communautés riveraines des sources et des ruisseaux de montagne calcaires et des marais[1].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette laîche est originaire d'Europe.
 </t>
         </is>
       </c>
@@ -636,12 +661,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La laîche dioïque est une espèce caractéristique des communautés riveraines des sources et des ruisseaux de montagne calcaires et des marais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carex_dioica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_dioica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est sur la Liste rouge de la flore vasculaire de France métropolitaine (2019), catégorie UICN VU (vulnérable). Elle a déjà disparu de certaines régions[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est sur la Liste rouge de la flore vasculaire de France métropolitaine (2019), catégorie UICN VU (vulnérable). Elle a déjà disparu de certaines régions.
 </t>
         </is>
       </c>
